--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>376.8087824557022</v>
+        <v>455.5963751580089</v>
       </c>
       <c r="R2">
-        <v>3391.27904210132</v>
+        <v>4100.36737642208</v>
       </c>
       <c r="S2">
-        <v>0.01258766260270172</v>
+        <v>0.01714751142635162</v>
       </c>
       <c r="T2">
-        <v>0.01258766260270171</v>
+        <v>0.01714751142635162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>397.17041501003</v>
+        <v>492.94728318491</v>
       </c>
       <c r="R3">
-        <v>3574.53373509027</v>
+        <v>4436.52554866419</v>
       </c>
       <c r="S3">
-        <v>0.01326786267384575</v>
+        <v>0.01855330646138403</v>
       </c>
       <c r="T3">
-        <v>0.01326786267384575</v>
+        <v>0.01855330646138403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>256.6074766922455</v>
+        <v>212.5031108189478</v>
       </c>
       <c r="R4">
-        <v>2309.46729023021</v>
+        <v>1912.52799737053</v>
       </c>
       <c r="S4">
-        <v>0.008572221477646589</v>
+        <v>0.007998087165727343</v>
       </c>
       <c r="T4">
-        <v>0.008572221477646589</v>
+        <v>0.007998087165727344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>137.4879955952555</v>
+        <v>166.8728340506522</v>
       </c>
       <c r="R5">
-        <v>1237.3919603573</v>
+        <v>1501.85550645587</v>
       </c>
       <c r="S5">
-        <v>0.004592919754141539</v>
+        <v>0.006280677337783543</v>
       </c>
       <c r="T5">
-        <v>0.004592919754141538</v>
+        <v>0.006280677337783544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>200.1474197573989</v>
+        <v>199.2437827598133</v>
       </c>
       <c r="R6">
-        <v>1801.32677781659</v>
+        <v>1793.19404483832</v>
       </c>
       <c r="S6">
-        <v>0.00668611855139983</v>
+        <v>0.007499039122772879</v>
       </c>
       <c r="T6">
-        <v>0.006686118551399827</v>
+        <v>0.00749903912277288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>6271.977291715335</v>
+        <v>6109.984859802226</v>
       </c>
       <c r="R7">
-        <v>56447.79562543801</v>
+        <v>54989.86373822004</v>
       </c>
       <c r="S7">
-        <v>0.2095214805912886</v>
+        <v>0.229964593467096</v>
       </c>
       <c r="T7">
-        <v>0.2095214805912886</v>
+        <v>0.2299645934670959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>6610.896401218864</v>
@@ -948,10 +948,10 @@
         <v>59498.06761096977</v>
       </c>
       <c r="S8">
-        <v>0.2208434019441703</v>
+        <v>0.2488176547476082</v>
       </c>
       <c r="T8">
-        <v>0.2208434019441702</v>
+        <v>0.2488176547476082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>4271.228117904449</v>
+        <v>2849.870764038323</v>
       </c>
       <c r="R9">
-        <v>38441.05306114005</v>
+        <v>25648.83687634491</v>
       </c>
       <c r="S9">
-        <v>0.1426845151988316</v>
+        <v>0.1072620287486357</v>
       </c>
       <c r="T9">
-        <v>0.1426845151988316</v>
+        <v>0.1072620287486357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>2288.485901621138</v>
+        <v>2237.924937853516</v>
       </c>
       <c r="R10">
-        <v>20596.37311459024</v>
+        <v>20141.32444068165</v>
       </c>
       <c r="S10">
-        <v>0.07644908967596327</v>
+        <v>0.08422991387903674</v>
       </c>
       <c r="T10">
-        <v>0.07644908967596326</v>
+        <v>0.08422991387903674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>3331.451203267532</v>
+        <v>2672.050443004459</v>
       </c>
       <c r="R11">
-        <v>29983.06082940779</v>
+        <v>24048.45398704013</v>
       </c>
       <c r="S11">
-        <v>0.1112903564794865</v>
+        <v>0.1005693153008867</v>
       </c>
       <c r="T11">
-        <v>0.1112903564794864</v>
+        <v>0.1005693153008867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>646.6270894191581</v>
+        <v>331.9824153421653</v>
       </c>
       <c r="R12">
-        <v>5819.643804772422</v>
+        <v>2987.841738079488</v>
       </c>
       <c r="S12">
-        <v>0.02160120467025548</v>
+        <v>0.01249499023879035</v>
       </c>
       <c r="T12">
-        <v>0.02160120467025547</v>
+        <v>0.01249499023879035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>681.5689055536459</v>
+        <v>359.1991478231759</v>
       </c>
       <c r="R13">
-        <v>6134.120149982813</v>
+        <v>3232.792330408583</v>
       </c>
       <c r="S13">
-        <v>0.02276846990584823</v>
+        <v>0.01351936017817853</v>
       </c>
       <c r="T13">
-        <v>0.02276846990584822</v>
+        <v>0.01351936017817853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>440.3542419986135</v>
+        <v>154.8460432173786</v>
       </c>
       <c r="R14">
-        <v>3963.188177987522</v>
+        <v>1393.614388956408</v>
       </c>
       <c r="S14">
-        <v>0.01471046027065107</v>
+        <v>0.005828018922394756</v>
       </c>
       <c r="T14">
-        <v>0.01471046027065107</v>
+        <v>0.005828018922394757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>235.9378723670955</v>
+        <v>121.5963285131813</v>
       </c>
       <c r="R15">
-        <v>2123.440851303859</v>
+        <v>1094.366956618632</v>
       </c>
       <c r="S15">
-        <v>0.007881733310994263</v>
+        <v>0.00457658257675786</v>
       </c>
       <c r="T15">
-        <v>0.00788173331099426</v>
+        <v>0.004576582576757861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>343.4653052644708</v>
+        <v>145.184281195328</v>
       </c>
       <c r="R16">
-        <v>3091.187747380237</v>
+        <v>1306.658530757952</v>
       </c>
       <c r="S16">
-        <v>0.01147379142871059</v>
+        <v>0.005464374293715819</v>
       </c>
       <c r="T16">
-        <v>0.01147379142871058</v>
+        <v>0.005464374293715821</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>499.6551457221142</v>
+        <v>729.3538662479716</v>
       </c>
       <c r="R17">
-        <v>4496.896311499027</v>
+        <v>6564.184796231744</v>
       </c>
       <c r="S17">
-        <v>0.0166914644373851</v>
+        <v>0.02745106071356101</v>
       </c>
       <c r="T17">
-        <v>0.0166914644373851</v>
+        <v>0.02745106071356101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>526.655032547387</v>
+        <v>789.148084689338</v>
       </c>
       <c r="R18">
-        <v>4739.895292926482</v>
+        <v>7102.332762204042</v>
       </c>
       <c r="S18">
-        <v>0.01759342182662833</v>
+        <v>0.02970156598502524</v>
       </c>
       <c r="T18">
-        <v>0.01759342182662833</v>
+        <v>0.02970156598502524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>340.2660769328565</v>
+        <v>340.1913929007171</v>
       </c>
       <c r="R19">
-        <v>3062.394692395709</v>
+        <v>3061.722536106454</v>
       </c>
       <c r="S19">
-        <v>0.0113669181054167</v>
+        <v>0.01280395568311618</v>
       </c>
       <c r="T19">
-        <v>0.0113669181054167</v>
+        <v>0.01280395568311618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>182.3115268876855</v>
+        <v>267.1429215045629</v>
       </c>
       <c r="R20">
-        <v>1640.80374198917</v>
+        <v>2404.286293541066</v>
       </c>
       <c r="S20">
-        <v>0.006090293262512677</v>
+        <v>0.01005459338296915</v>
       </c>
       <c r="T20">
-        <v>0.006090293262512674</v>
+        <v>0.01005459338296915</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>265.3990374986679</v>
+        <v>318.9648364329973</v>
       </c>
       <c r="R21">
-        <v>2388.591337488011</v>
+        <v>2870.683527896976</v>
       </c>
       <c r="S21">
-        <v>0.00886591208767209</v>
+        <v>0.01200504103098339</v>
       </c>
       <c r="T21">
-        <v>0.008865912087672085</v>
+        <v>0.01200504103098339</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>448.9764635423275</v>
+        <v>299.444723137056</v>
       </c>
       <c r="R22">
-        <v>4040.788171880948</v>
+        <v>2695.002508233504</v>
       </c>
       <c r="S22">
-        <v>0.01499849393847243</v>
+        <v>0.01127035264442688</v>
       </c>
       <c r="T22">
-        <v>0.01499849393847243</v>
+        <v>0.01127035264442687</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>473.2378242160669</v>
+        <v>323.993935823733</v>
       </c>
       <c r="R23">
-        <v>4259.140417944603</v>
+        <v>2915.945422413597</v>
       </c>
       <c r="S23">
-        <v>0.01580896820728645</v>
+        <v>0.01219432379083192</v>
       </c>
       <c r="T23">
-        <v>0.01580896820728645</v>
+        <v>0.01219432379083192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>305.7538007818299</v>
+        <v>139.669537894971</v>
       </c>
       <c r="R24">
-        <v>2751.784207036469</v>
+        <v>1257.025841054739</v>
       </c>
       <c r="S24">
-        <v>0.01021400206930636</v>
+        <v>0.005256813108174186</v>
       </c>
       <c r="T24">
-        <v>0.01021400206930635</v>
+        <v>0.005256813108174186</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>163.8201573742189</v>
+        <v>109.678637311509</v>
       </c>
       <c r="R25">
-        <v>1474.38141636797</v>
+        <v>987.107735803581</v>
       </c>
       <c r="S25">
-        <v>0.005472571141015238</v>
+        <v>0.004128030399437463</v>
       </c>
       <c r="T25">
-        <v>0.005472571141015236</v>
+        <v>0.004128030399437462</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>238.4803244875612</v>
+        <v>130.954727953224</v>
       </c>
       <c r="R26">
-        <v>2146.322920388051</v>
+        <v>1178.592551579016</v>
       </c>
       <c r="S26">
-        <v>0.007966666388369414</v>
+        <v>0.004928809394354554</v>
       </c>
       <c r="T26">
-        <v>0.00796666638836941</v>
+        <v>0.004928809394354554</v>
       </c>
     </row>
   </sheetData>
